--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoDSDwSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoDSDwSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FAA0DC-7A88-406C-8180-54374CF6A63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
-    <sheet name="EoDSDwSP" sheetId="4" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="5" r:id="rId3"/>
+    <sheet name="EoDSDwSP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Source:</t>
   </si>
@@ -84,16 +96,34 @@
   </si>
   <si>
     <t>Elasticity (dimensionless)</t>
+  </si>
+  <si>
+    <t>BAU Deployment 2015-2022 (square pixels measured)</t>
+  </si>
+  <si>
+    <t>Deployment with Extended ITC 2015-2022 (square pixels measured)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The source has Texas specific data, but it's in graphical form. </t>
+  </si>
+  <si>
+    <t>So, I used some visual editing software to measure the areas of the Texas specific data. This has some error associated with it.</t>
+  </si>
+  <si>
+    <t>The main point here is that Texas residential is less elastic and commericial is more elastic than the national average. Because the measuring technique I used has some error in it, I will average the numbres</t>
+  </si>
+  <si>
+    <t>above with the national numbers in the "Calculations" tab to come up with something a bit more conservative, in case my measuring error is high.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +146,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,11 +172,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,8 +189,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -244,6 +285,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +562,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -512,16 +587,21 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{B057DAC4-88C1-4AB6-9D25-280835C89BC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -618,14 +698,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F357FA31-3A6D-42C5-9957-B5B098B0B291}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="68.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>26477</v>
+      </c>
+      <c r="C6">
+        <v>29137</v>
+      </c>
+      <c r="D6" s="4">
+        <f>(C6-B6)/B6</f>
+        <v>0.10046455414133021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>11010</v>
+      </c>
+      <c r="C7">
+        <v>20634</v>
+      </c>
+      <c r="D7" s="4">
+        <f>(C7-B7)/B7</f>
+        <v>0.87411444141689376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <f>D6/$A$10</f>
+        <v>0.33488184713776736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6">
+        <f>D7/$A$10</f>
+        <v>2.9137148047229795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <f>AVERAGE(B13,Calculations!B9)</f>
+        <v>0.89992500000200493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6">
+        <f>AVERAGE(B14,Calculations!B10)</f>
+        <v>2.0899323377620065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,8 +861,8 @@
         <v>15</v>
       </c>
       <c r="B2" s="6">
-        <f>Calculations!B9</f>
-        <v>1.4649681528662426</v>
+        <f>'Texas Notes'!B19</f>
+        <v>0.89992500000200493</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +871,7 @@
       </c>
       <c r="B3" s="6">
         <f>B2</f>
-        <v>1.4649681528662426</v>
+        <v>0.89992500000200493</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,8 +879,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <f>Calculations!B10</f>
-        <v>1.2661498708010337</v>
+        <f>'Texas Notes'!B20</f>
+        <v>2.0899323377620065</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoDSDwSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoDSDwSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FAA0DC-7A88-406C-8180-54374CF6A63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="5" r:id="rId3"/>
-    <sheet name="EoDSDwSP" sheetId="4" r:id="rId4"/>
+    <sheet name="EoDSDwSP" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -96,34 +84,16 @@
   </si>
   <si>
     <t>Elasticity (dimensionless)</t>
-  </si>
-  <si>
-    <t>BAU Deployment 2015-2022 (square pixels measured)</t>
-  </si>
-  <si>
-    <t>Deployment with Extended ITC 2015-2022 (square pixels measured)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The source has Texas specific data, but it's in graphical form. </t>
-  </si>
-  <si>
-    <t>So, I used some visual editing software to measure the areas of the Texas specific data. This has some error associated with it.</t>
-  </si>
-  <si>
-    <t>The main point here is that Texas residential is less elastic and commericial is more elastic than the national average. Because the measuring technique I used has some error in it, I will average the numbres</t>
-  </si>
-  <si>
-    <t>above with the national numbers in the "Calculations" tab to come up with something a bit more conservative, in case my measuring error is high.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +116,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,12 +134,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,10 +150,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -285,23 +244,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,23 +279,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +487,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -587,21 +512,16 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{B057DAC4-88C1-4AB6-9D25-280835C89BC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -698,152 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F357FA31-3A6D-42C5-9957-B5B098B0B291}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="3" width="68.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>26477</v>
-      </c>
-      <c r="C6">
-        <v>29137</v>
-      </c>
-      <c r="D6" s="4">
-        <f>(C6-B6)/B6</f>
-        <v>0.10046455414133021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>11010</v>
-      </c>
-      <c r="C7">
-        <v>20634</v>
-      </c>
-      <c r="D7" s="4">
-        <f>(C7-B7)/B7</f>
-        <v>0.87411444141689376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
-        <f>D6/$A$10</f>
-        <v>0.33488184713776736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
-        <f>D7/$A$10</f>
-        <v>2.9137148047229795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6">
-        <f>AVERAGE(B13,Calculations!B9)</f>
-        <v>0.89992500000200493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6">
-        <f>AVERAGE(B14,Calculations!B10)</f>
-        <v>2.0899323377620065</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,8 +643,8 @@
         <v>15</v>
       </c>
       <c r="B2" s="6">
-        <f>'Texas Notes'!B19</f>
-        <v>0.89992500000200493</v>
+        <f>Calculations!B9</f>
+        <v>1.4649681528662426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +653,7 @@
       </c>
       <c r="B3" s="6">
         <f>B2</f>
-        <v>0.89992500000200493</v>
+        <v>1.4649681528662426</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,8 +661,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <f>'Texas Notes'!B20</f>
-        <v>2.0899323377620065</v>
+        <f>Calculations!B10</f>
+        <v>1.2661498708010337</v>
       </c>
     </row>
   </sheetData>
